--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBD4A9-6A4F-E646-9B95-E0156EE1A85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A557C1-650A-5040-B172-48621749619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vigentes" sheetId="4" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Orientações à Banca Examinadora.pdf</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1b0pO2PTjOviC91wbLkRmDwSNdjn_b9ia/view?usp=sharing</t>
-  </si>
-  <si>
     <t>https://docs.google.com/presentation/d/1c-YSz4hj60MdujW-MK78XFGnzpBV3ltR/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
@@ -142,64 +139,67 @@
     <t>https://docs.google.com/document/d/1bvpW9lrnivhMf-tongR9qIMJ-pFTGXT5/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1bv0xmRRxxWi1yNkXw_v_rAy3eGhkwJt_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1c5yDivSLHxEA0W1mLz56_pWjRDQKHNL8/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1b2cLR221IBu6jhKyNz58PC6yeAs0zrny/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1b3LFCydeYp0eMphBKfUAv5_deEa1emrD/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1j7ljkP2LctLqj8TBTwhpgfLMsDoNhsE9/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iedfQXZ8WyazZiHBl4OeRVBcnRss8zav/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1c0rk9Txd3Y8t-YLmnntPl-irpKTKHFsp/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b2cLR221IBu6jhKyNz58PC6yeAs0zrny</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b3LFCydeYp0eMphBKfUAv5_deEa1emrD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c5yDivSLHxEA0W1mLz56_pWjRDQKHNL8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bv0xmRRxxWi1yNkXw_v_rAy3eGhkwJt_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b0pO2PTjOviC91wbLkRmDwSNdjn_b9ia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c0rk9Txd3Y8t-YLmnntPl-irpKTKHFsp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iedfQXZ8WyazZiHBl4OeRVBcnRss8zav</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j7ljkP2LctLqj8TBTwhpgfLMsDoNhsE9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -650,7 +650,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -933,18 +933,19 @@
     <sortCondition ref="B4:B15"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
+    <hyperlink ref="C15" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C11" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
+    <hyperlink ref="C9" r:id="rId6" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
+    <hyperlink ref="C7" r:id="rId7" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
+    <hyperlink ref="C5" r:id="rId10" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
+    <hyperlink ref="C3" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
+    <hyperlink ref="C4" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A557C1-650A-5040-B172-48621749619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C98A8-9639-4A4E-A311-DC5F37118761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Vigentes" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>Publicação</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Regulamento PG-UNISUAM.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SZq0tFUH9dl3CDrO9Z2tp_jjiEHz77p5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Sd-U4TjJLUQRKZIawO5Bb3fwCDPA2iuF</t>
+  </si>
+  <si>
+    <t>Politica Intercâmbio Docente UNISUAM.pdf</t>
   </si>
 </sst>
 </file>
@@ -576,9 +591,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -709,30 +724,41 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>2022</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
     <hyperlink ref="C10" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
     <hyperlink ref="C11" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
@@ -743,7 +769,8 @@
     <hyperlink ref="C3" r:id="rId9" xr:uid="{38E3EFD9-E05A-D943-B81F-9E48C3BB0427}"/>
     <hyperlink ref="C4" r:id="rId10" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
     <hyperlink ref="C2" r:id="rId11" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{030C4F3F-C946-DF4B-9287-8F45F8640FE9}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{030C4F3F-C946-DF4B-9287-8F45F8640FE9}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -751,9 +778,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -917,23 +944,34 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2009</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C15">
-    <sortCondition descending="1" ref="A4:A15"/>
-    <sortCondition ref="B4:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C16">
+    <sortCondition descending="1" ref="A4:A16"/>
+    <sortCondition ref="B4:B16"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C16" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
     <hyperlink ref="C13" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
     <hyperlink ref="C12" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
     <hyperlink ref="C11" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
@@ -946,6 +984,7 @@
     <hyperlink ref="C3" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
     <hyperlink ref="C4" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
     <hyperlink ref="C2" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67DE304-36E4-994D-835C-3293F32F69F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2B8784-D857-F147-AA90-C83695213C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Publicação</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Boas Práticas em Pesquisa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PUaiihYUCtDlogSbQOHomT0hXGy_15t4</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -282,7 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -302,7 +304,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,37 +622,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -658,32 +660,32 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -691,32 +693,32 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,61 +737,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{56C56D7E-2135-A74D-BA2E-25208B8CAD37}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{38E3EFD9-E05A-D943-B81F-9E48C3BB0427}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{030C4F3F-C946-DF4B-9287-8F45F8640FE9}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{56C56D7E-2135-A74D-BA2E-25208B8CAD37}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{38E3EFD9-E05A-D943-B81F-9E48C3BB0427}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -797,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -820,69 +822,69 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,120 +892,132 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2009</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C16">
-    <sortCondition descending="1" ref="A4:A16"/>
-    <sortCondition ref="B4:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C17">
+    <sortCondition descending="1" ref="A5:A17"/>
+    <sortCondition ref="B5:B17"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
-    <hyperlink ref="C12" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
-    <hyperlink ref="C11" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C10" r:id="rId5" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
-    <hyperlink ref="C7" r:id="rId7" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
-    <hyperlink ref="C8" r:id="rId8" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
-    <hyperlink ref="C6" r:id="rId9" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
-    <hyperlink ref="C5" r:id="rId10" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
-    <hyperlink ref="C3" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
-    <hyperlink ref="C4" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
+    <hyperlink ref="C17" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C14" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
+    <hyperlink ref="C13" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C12" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C11" r:id="rId5" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
+    <hyperlink ref="C7" r:id="rId9" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
+    <hyperlink ref="C4" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
+    <hyperlink ref="C5" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
+    <hyperlink ref="C2" r:id="rId15" xr:uid="{E99120A4-767B-4142-9CA8-61EA7FD1236B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC40728-AFD5-DE46-9959-7D1DA4ADC9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D75EB3-ECB1-5649-8BF7-C2A4F21803D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>Publicação</t>
   </si>
@@ -136,9 +136,6 @@
     <t>https://docs.google.com/spreadsheets/d/1cBhKXh8TbSvUz-6Y1xbhh7nDFOcUkUIB/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
-    <t>https://docs.google.com/document/d/1bvpW9lrnivhMf-tongR9qIMJ-pFTGXT5/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq</t>
   </si>
   <si>
@@ -230,6 +227,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1WTSfUj2og9ZLKGxSl3UrQnROOdqv-TPS</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1cHFSHanzIirew7nrod5Cm7Gd-ACUcpHk/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bvpW9lrnivhMf-tongR9qIMJ-pFTGXT5/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -628,81 +631,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>63</v>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>2023</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2022</v>
       </c>
       <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -710,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -765,10 +768,10 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -788,16 +791,16 @@
     <hyperlink ref="C11" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
     <hyperlink ref="C12" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{56C56D7E-2135-A74D-BA2E-25208B8CAD37}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{166806F0-60A6-5B47-AC6A-510988224B57}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -805,7 +808,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -835,7 +838,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -846,73 +849,73 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,122 +923,134 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>2009</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C18">
-    <sortCondition descending="1" ref="A6:A18"/>
-    <sortCondition ref="B6:B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C19">
+    <sortCondition descending="1" ref="A7:A19"/>
+    <sortCondition ref="B7:B19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
-    <hyperlink ref="C15" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
-    <hyperlink ref="C14" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
-    <hyperlink ref="C13" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C12" r:id="rId5" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
-    <hyperlink ref="C11" r:id="rId6" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
-    <hyperlink ref="C9" r:id="rId7" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
-    <hyperlink ref="C8" r:id="rId9" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
-    <hyperlink ref="C5" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
-    <hyperlink ref="C6" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
+    <hyperlink ref="C19" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C16" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
+    <hyperlink ref="C15" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C14" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C13" r:id="rId5" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
+    <hyperlink ref="C12" r:id="rId6" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
+    <hyperlink ref="C9" r:id="rId9" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
+    <hyperlink ref="C8" r:id="rId10" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
+    <hyperlink ref="C6" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
+    <hyperlink ref="C7" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
     <hyperlink ref="C2" r:id="rId15" xr:uid="{E99120A4-767B-4142-9CA8-61EA7FD1236B}"/>
     <hyperlink ref="C3" r:id="rId16" xr:uid="{F7774F9E-B6EE-524C-BD17-299F67051FAD}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D75EB3-ECB1-5649-8BF7-C2A4F21803D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637A3CA-9D66-544E-AE1A-EFD30968FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637A3CA-9D66-544E-AE1A-EFD30968FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F7218-C346-B842-9465-5356651069D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Publicação</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1bvpW9lrnivhMf-tongR9qIMJ-pFTGXT5/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QJz9v3vc-1dUYcw68gx1PlYZRz_l1Pwr/view</t>
+  </si>
+  <si>
+    <t>Ferramenta Zoom para aulas</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,70 +681,70 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -746,10 +752,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -757,50 +763,62 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
     <hyperlink ref="C5" r:id="rId11" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
     <hyperlink ref="C4" r:id="rId12" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
     <hyperlink ref="C3" r:id="rId13" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
     <hyperlink ref="C2" r:id="rId14" xr:uid="{166806F0-60A6-5B47-AC6A-510988224B57}"/>
+    <hyperlink ref="C6" r:id="rId15" xr:uid="{2ACD8A1A-3559-6346-9181-3A6A2B4E0DE5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F7218-C346-B842-9465-5356651069D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B3ACFB-B974-624E-BDA3-1616BB295ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vigentes" sheetId="4" r:id="rId1"/>
-    <sheet name="Revogados" sheetId="3" r:id="rId2"/>
+    <sheet name="Modelos" sheetId="5" r:id="rId1"/>
+    <sheet name="Documentos" sheetId="6" r:id="rId2"/>
+    <sheet name="Políticas" sheetId="4" r:id="rId3"/>
+    <sheet name="Ferramentas" sheetId="7" r:id="rId4"/>
+    <sheet name="Revogados" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Publicação</t>
   </si>
@@ -614,19 +617,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -648,183 +651,276 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>62</v>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2023</v>
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2022</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2022</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2022</v>
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{166806F0-60A6-5B47-AC6A-510988224B57}"/>
-    <hyperlink ref="C6" r:id="rId15" xr:uid="{2ACD8A1A-3559-6346-9181-3A6A2B4E0DE5}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{166806F0-60A6-5B47-AC6A-510988224B57}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E9080-A683-DB41-BDAA-A32B194D1886}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="132.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D074968-5962-3C49-A683-D81D181EE6EE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5310DA64-BB82-4848-B104-D6D56542AE5A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
   <dimension ref="A1:C19"/>
   <sheetViews>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B3ACFB-B974-624E-BDA3-1616BB295ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21486507-8471-0F48-83D1-AFBE42049BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Publicação</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Documento modelo PPGCR.docx</t>
   </si>
   <si>
-    <t>Cronograma modelo PPGCR</t>
-  </si>
-  <si>
     <t>Orientações à Banca Examinadora.pdf</t>
   </si>
   <si>
@@ -242,6 +239,18 @@
   </si>
   <si>
     <t>Ferramenta Zoom para aulas</t>
+  </si>
+  <si>
+    <t>2023 Modelo Projeto Pós-Doc PPGCR.docx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/14dVmIblrvL3Qm5gqPbA265N1twqVtdQa/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>2023 Modelo Pré-Projeto PPGCR.docx</t>
+  </si>
+  <si>
+    <t>Cronograma modelo PPGCR.xlsx</t>
   </si>
 </sst>
 </file>
@@ -618,14 +627,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="130.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,46 +651,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,10 +698,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,20 +709,32 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{166806F0-60A6-5B47-AC6A-510988224B57}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{D6576A2B-15FF-2547-8904-CE2925C01C1F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -751,18 +772,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -773,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,10 +871,10 @@
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -894,10 +915,10 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -905,10 +926,10 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +973,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -963,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -974,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -985,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -996,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1029,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1051,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1062,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1084,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1095,7 +1116,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1106,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1117,18 +1138,18 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,7 +1160,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21486507-8471-0F48-83D1-AFBE42049BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866DF8F4-EB2E-DA42-892F-DC0A26A8B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelos" sheetId="5" r:id="rId1"/>
-    <sheet name="Documentos" sheetId="6" r:id="rId2"/>
-    <sheet name="Políticas" sheetId="4" r:id="rId3"/>
-    <sheet name="Ferramentas" sheetId="7" r:id="rId4"/>
-    <sheet name="Revogados" sheetId="3" r:id="rId5"/>
+    <sheet name="Políticas" sheetId="4" r:id="rId1"/>
+    <sheet name="Regulamentos" sheetId="6" r:id="rId2"/>
+    <sheet name="Manual do aluno" sheetId="8" r:id="rId3"/>
+    <sheet name="Estrutura curricular" sheetId="9" r:id="rId4"/>
+    <sheet name="Modelos" sheetId="5" r:id="rId5"/>
+    <sheet name="Diversos" sheetId="7" r:id="rId6"/>
+    <sheet name="FAQ" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Publicação</t>
   </si>
@@ -46,21 +48,9 @@
     <t>2021-1</t>
   </si>
   <si>
-    <t>Disciplinas PPGCR.pdf</t>
-  </si>
-  <si>
-    <t>Manual do Aluno PPGCR.pdf</t>
-  </si>
-  <si>
     <t>Normas de Trabalhos PPGCR.pdf</t>
   </si>
   <si>
-    <t>Regulamento PPGCR.pdf</t>
-  </si>
-  <si>
-    <t>Regulamento PGGCR.pdf</t>
-  </si>
-  <si>
     <t>2012-1</t>
   </si>
   <si>
@@ -88,9 +78,6 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>PDI UNISUAM.pdf</t>
-  </si>
-  <si>
     <t>Documento</t>
   </si>
   <si>
@@ -202,18 +189,12 @@
     <t>2010</t>
   </si>
   <si>
-    <t>Regulamento PG-UNISUAM.pdf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1SZq0tFUH9dl3CDrO9Z2tp_jjiEHz77p5</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Sd-U4TjJLUQRKZIawO5Bb3fwCDPA2iuF</t>
   </si>
   <si>
-    <t>Politica Intercâmbio Docente UNISUAM.pdf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/16vdyXRk0gsnwu_-07qC8nZqM7UyzHTp1</t>
   </si>
   <si>
@@ -251,6 +232,48 @@
   </si>
   <si>
     <t>Cronograma modelo PPGCR.xlsx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PB4T4m1uRhas0Ww8vrfsvOUltayE8i2r</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 02/2021</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 03/2021</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 04/2023</t>
+  </si>
+  <si>
+    <t>Regulamento Geral da Pós-graduação da UNISUAM</t>
+  </si>
+  <si>
+    <t>Politica Intercâmbio Docente UNISUAM</t>
+  </si>
+  <si>
+    <t>PDI UNISUAM</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 06/2014</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 02/2017</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 04/2018</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 06/2020</t>
+  </si>
+  <si>
+    <t>Regulamento PPGCR</t>
+  </si>
+  <si>
+    <t>Manual do Aluno PPGCR</t>
+  </si>
+  <si>
+    <t>Disciplinas PPGCR</t>
   </si>
 </sst>
 </file>
@@ -303,15 +326,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -626,115 +655,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="130.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="132.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>61</v>
+      <c r="A2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{D6576A2B-15FF-2547-8904-CE2925C01C1F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -742,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E9080-A683-DB41-BDAA-A32B194D1886}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -758,135 +751,439 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2023</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2022</v>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{900EAC87-ACBF-6F43-A0A7-2258164A6D2C}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
+    <hyperlink ref="C8" r:id="rId2" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C9" r:id="rId6" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{9B910A99-21C6-2148-A4BE-DC1B85E41B2B}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{2ABDC497-009F-8545-A718-8B4976FD5811}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{2ECCBC57-40FC-5249-ABBE-15F427932C30}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B0B782-1A29-134E-BDF7-0CB34919B59F}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="132.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{F7774F9E-B6EE-524C-BD17-299F67051FAD}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059FF4B-2FF4-7D41-8B23-E5EC4E884866}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{D6576A2B-15FF-2547-8904-CE2925C01C1F}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C8" r:id="rId9" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D074968-5962-3C49-A683-D81D181EE6EE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -894,298 +1191,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>2022</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2022</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5310DA64-BB82-4848-B104-D6D56542AE5A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{5310DA64-BB82-4848-B104-D6D56542AE5A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD200B65-A641-2B48-9E18-CFDD6C161957}">
-  <dimension ref="A1:C19"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD440389-157F-7F43-8B24-B919F9531564}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2022</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C19">
-    <sortCondition descending="1" ref="A7:A19"/>
-    <sortCondition ref="B7:B19"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
-    <hyperlink ref="C16" r:id="rId2" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
-    <hyperlink ref="C15" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
-    <hyperlink ref="C14" r:id="rId4" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C13" r:id="rId5" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
-    <hyperlink ref="C12" r:id="rId6" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
-    <hyperlink ref="C9" r:id="rId9" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
-    <hyperlink ref="C8" r:id="rId10" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
-    <hyperlink ref="C6" r:id="rId11" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
-    <hyperlink ref="C7" r:id="rId12" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{FC5931CA-C0B2-044B-86EF-8BCB625CACD4}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
-    <hyperlink ref="C2" r:id="rId15" xr:uid="{E99120A4-767B-4142-9CA8-61EA7FD1236B}"/>
-    <hyperlink ref="C3" r:id="rId16" xr:uid="{F7774F9E-B6EE-524C-BD17-299F67051FAD}"/>
-    <hyperlink ref="C4" r:id="rId17" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{556AC569-E125-0049-B7E1-96C862E9F0D2}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FC4A4773-2F24-DF44-9BB8-800A8FB3D6F8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866DF8F4-EB2E-DA42-892F-DC0A26A8B0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822809C5-5E6B-F14D-8F80-579C8BC10AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
   <si>
     <t>Publicação</t>
   </si>
@@ -274,6 +274,24 @@
   </si>
   <si>
     <t>Disciplinas PPGCR</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Parecer Consubstantanciado Pós-Doc.doc</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1PQN0LA8B0qLh74cmoUzFhkcTvAxp7GKF/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Aula Inaugural</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PX3CaT1CsG8YM6zRYC7Jv4OfuC3JY7bF</t>
   </si>
 </sst>
 </file>
@@ -326,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -336,10 +354,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,52 +1037,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="130.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1078,91 +1093,102 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1170,14 +1196,15 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
     <hyperlink ref="C3" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{D6576A2B-15FF-2547-8904-CE2925C01C1F}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
     <hyperlink ref="C8" r:id="rId9" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
     <hyperlink ref="C4" r:id="rId10" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C10" r:id="rId11" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1185,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D074968-5962-3C49-A683-D81D181EE6EE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1209,31 +1236,43 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2022</v>
+      <c r="A2" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2022</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{5310DA64-BB82-4848-B104-D6D56542AE5A}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{5310DA64-BB82-4848-B104-D6D56542AE5A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C6425705-4A3D-604C-AE3E-AE2F54F41A72}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822809C5-5E6B-F14D-8F80-579C8BC10AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960B1BF-8300-044B-97EB-B0391FB04906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Políticas" sheetId="4" r:id="rId1"/>
     <sheet name="Regulamentos" sheetId="6" r:id="rId2"/>
-    <sheet name="Manual do aluno" sheetId="8" r:id="rId3"/>
-    <sheet name="Estrutura curricular" sheetId="9" r:id="rId4"/>
-    <sheet name="Modelos" sheetId="5" r:id="rId5"/>
-    <sheet name="Diversos" sheetId="7" r:id="rId6"/>
-    <sheet name="FAQ" sheetId="11" r:id="rId7"/>
+    <sheet name="PPC" sheetId="13" r:id="rId3"/>
+    <sheet name="Manual do aluno" sheetId="8" r:id="rId4"/>
+    <sheet name="Estrutura curricular" sheetId="9" r:id="rId5"/>
+    <sheet name="Modelos" sheetId="5" r:id="rId6"/>
+    <sheet name="Diversos" sheetId="7" r:id="rId7"/>
+    <sheet name="FAQ" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Publicação</t>
   </si>
@@ -292,6 +293,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1PX3CaT1CsG8YM6zRYC7Jv4OfuC3JY7bF</t>
+  </si>
+  <si>
+    <t>Projeto Pedagógico do Curso</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xIwbS13Cz8OticwfTWVyMKXfhw48XO1A</t>
+  </si>
+  <si>
+    <t>2022-2026</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xKdBXZkCPXE-eH8UQihhcSXEIMxDaXqI</t>
   </si>
 </sst>
 </file>
@@ -671,9 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -695,54 +710,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2018</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{6B15A799-1845-0A40-9BE5-1468AD0A24B3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -888,6 +915,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D05931-1FDD-8C47-BA19-3C068D974C07}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5D9D5AA4-BF21-2E45-B169-A47703A44C0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B0B782-1A29-134E-BDF7-0CB34919B59F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -967,7 +1037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059FF4B-2FF4-7D41-8B23-E5EC4E884866}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1035,7 +1105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1210,7 +1280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D074968-5962-3C49-A683-D81D181EE6EE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1278,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD440389-157F-7F43-8B24-B919F9531564}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960B1BF-8300-044B-97EB-B0391FB04906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81047E11-B88B-CF42-B7D3-4355E0E46428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Publicação</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1xKdBXZkCPXE-eH8UQihhcSXEIMxDaXqI</t>
+  </si>
+  <si>
+    <t>2023 Templat Project PPGCR - EN.docx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1aeT-kVGrE61Ues0_oed9yCAUAQwERfjS/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1146,32 +1152,32 @@
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1179,65 +1185,65 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1245,10 +1251,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1256,25 +1262,37 @@
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{D6576A2B-15FF-2547-8904-CE2925C01C1F}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
-    <hyperlink ref="C8" r:id="rId9" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C9" r:id="rId9" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81047E11-B88B-CF42-B7D3-4355E0E46428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BCE52-9DF0-9D4A-8E12-D1502217A915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="3" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Políticas" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>Publicação</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1aeT-kVGrE61Ues0_oed9yCAUAQwERfjS/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11qoQgxvvZYw63q2Zk8l7DlNCG5aE3Zib</t>
   </si>
 </sst>
 </file>
@@ -692,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -965,9 +971,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B0B782-1A29-134E-BDF7-0CB34919B59F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -990,54 +996,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
+      <c r="A3" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{F7774F9E-B6EE-524C-BD17-299F67051FAD}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{F7774F9E-B6EE-524C-BD17-299F67051FAD}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A88AC874-7755-B646-A004-AB9EFCF0203C}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://drive.google.com/file/d/1iX20FI0TPNa4_ScoPKnTpHk7ukIidFMY/view?usp=sharing" xr:uid="{F6B60CDF-5D12-7D44-BF7A-A1B24435B9D3}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1jDu6vWh71I_raBgMUrQTU4K0z_bIg5NJ/view?usp=sharing" xr:uid="{86043417-9A39-6549-B2B0-745D101E7ED7}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{D15B2F69-37F2-1E43-947E-0327D8F0D0DC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BCE52-9DF0-9D4A-8E12-D1502217A915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C52787-0AD3-E044-89C8-DE18F2B80518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="3" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Políticas" sheetId="4" r:id="rId1"/>
+    <sheet name="Políticas institucionais" sheetId="4" r:id="rId1"/>
     <sheet name="Regulamentos" sheetId="6" r:id="rId2"/>
     <sheet name="PPC" sheetId="13" r:id="rId3"/>
     <sheet name="Manual do aluno" sheetId="8" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>Publicação</t>
   </si>
@@ -211,9 +211,6 @@
     <t>https://drive.google.com/file/d/1WTSfUj2og9ZLKGxSl3UrQnROOdqv-TPS</t>
   </si>
   <si>
-    <t>https://docs.google.com/document/d/1cHFSHanzIirew7nrod5Cm7Gd-ACUcpHk/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1bvpW9lrnivhMf-tongR9qIMJ-pFTGXT5/edit?usp=share_link&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
@@ -317,6 +314,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/11qoQgxvvZYw63q2Zk8l7DlNCG5aE3Zib</t>
+  </si>
+  <si>
+    <t>2024-1</t>
+  </si>
+  <si>
+    <t>2024 Modelo Projeto-Dissertação-Tese PPGCR</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/14dVmIblrvL3Qm5gqPbA265N1twqVtdQa/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1z-PUSYy94Z18EwFE4_dRsLErG6WzHxwx/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -400,9 +409,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,7 +449,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -546,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,13 +731,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -736,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -747,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -758,7 +767,7 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>50</v>
@@ -769,7 +778,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -816,10 +825,10 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -838,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -849,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -860,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -871,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
@@ -882,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
@@ -893,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -904,7 +913,7 @@
         <v>2009</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>47</v>
@@ -955,10 +964,10 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B0B782-1A29-134E-BDF7-0CB34919B59F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -996,13 +1005,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,7 +1019,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>55</v>
@@ -1021,7 +1030,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
@@ -1032,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>36</v>
@@ -1043,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -1091,7 +1100,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
@@ -1102,7 +1111,7 @@
         <v>2021</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>35</v>
@@ -1113,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>39</v>
@@ -1131,9 +1140,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1156,13 +1165,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1170,10 +1179,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1181,32 +1190,32 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1214,65 +1223,65 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,10 +1289,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1291,26 +1300,38 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C14" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{D6576A2B-15FF-2547-8904-CE2925C01C1F}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
-    <hyperlink ref="C9" r:id="rId9" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1343,13 +1364,13 @@
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1368,10 +1389,10 @@
         <v>2022</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C52787-0AD3-E044-89C8-DE18F2B80518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F007845-FD53-DE49-8A5C-E929852F24AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="4" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Políticas institucionais" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Publicação</t>
   </si>
@@ -55,9 +55,6 @@
     <t>2012-1</t>
   </si>
   <si>
-    <t>2013-1</t>
-  </si>
-  <si>
     <t>2017-1</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>2020-2</t>
   </si>
   <si>
-    <t>2011-1</t>
-  </si>
-  <si>
     <t>Abrir</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Slides Pós-Doutorado.ppt</t>
   </si>
   <si>
-    <t>2018-1</t>
-  </si>
-  <si>
     <t>Slides Mestrado.ppt</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t>Manual do Aluno PPGCR</t>
   </si>
   <si>
-    <t>Disciplinas PPGCR</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -316,9 +304,6 @@
     <t>https://drive.google.com/file/d/11qoQgxvvZYw63q2Zk8l7DlNCG5aE3Zib</t>
   </si>
   <si>
-    <t>2024-1</t>
-  </si>
-  <si>
     <t>2024 Modelo Projeto-Dissertação-Tese PPGCR</t>
   </si>
   <si>
@@ -326,6 +311,24 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1z-PUSYy94Z18EwFE4_dRsLErG6WzHxwx/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Disciplinas e Ementas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-_lbtR7-U52T2z27CMpfw7Yigh4hRlPP</t>
   </si>
 </sst>
 </file>
@@ -723,43 +726,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,21 +770,21 @@
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -814,32 +817,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,54 +850,54 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,10 +916,10 @@
         <v>2009</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -953,21 +956,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -997,43 +1000,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1041,21 +1044,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1072,9 +1075,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059FF4B-2FF4-7D41-8B23-E5EC4E884866}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1089,50 +1092,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2022</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2021</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1iYLmH2-aT2xDXK6G8HbTazYKSm7PQQ0Q/view?usp=sharing" xr:uid="{8A78FD42-ED88-8C44-9A0D-707561423D5C}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://drive.google.com/file/d/1iR6WwEUEtZMgbsBZxmU2eyrNiDUiKvjP/view?usp=sharing" xr:uid="{0297BA1E-A03B-9D45-AA92-C8E564AE7AF7}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{C339C3EE-9BFC-E842-9944-9BD10FC3ACB4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1142,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1157,164 +1172,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1356,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1378,10 +1393,10 @@
         <v>2022</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1389,10 +1404,10 @@
         <v>2022</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,10 +1450,10 @@
         <v>2023</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,10 +1461,10 @@
         <v>2022</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F007845-FD53-DE49-8A5C-E929852F24AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF884B9D-064D-A746-92AA-5AD21E15D597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="4" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Políticas institucionais" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>Publicação</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-_lbtR7-U52T2z27CMpfw7Yigh4hRlPP</t>
+  </si>
+  <si>
+    <t>2025-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CCx4UrhDAJn18DvWhp_xnWJo3jpRpbhe</t>
+  </si>
+  <si>
+    <t>Regulamento Acadêmico n° 04/2025</t>
   </si>
 </sst>
 </file>
@@ -801,9 +810,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E9080-A683-DB41-BDAA-A32B194D1886}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -825,114 +834,126 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>2009</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
-    <hyperlink ref="C8" r:id="rId2" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
-    <hyperlink ref="C7" r:id="rId3" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
-    <hyperlink ref="C10" r:id="rId5" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{9B910A99-21C6-2148-A4BE-DC1B85E41B2B}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{2ABDC497-009F-8545-A718-8B4976FD5811}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{2ECCBC57-40FC-5249-ABBE-15F427932C30}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://drive.google.com/file/d/1jDNHvd1w4LHQxD3ILppubNwwCCOPvcaU/view?usp=sharing" xr:uid="{AA3BC681-91DF-C64B-A66F-326705209E1A}"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://drive.google.com/file/d/1iaxSaLrAsv88GA4-C2YINgR3hHoekGkT/view?usp=sharing" xr:uid="{161BEBFD-ED1A-3F46-8223-CE3D89D3B068}"/>
+    <hyperlink ref="C8" r:id="rId3" display="https://drive.google.com/file/d/1iLJ5xpRxtIp5GLUzs_1ewik-r5QoXiER/view?usp=sharing" xr:uid="{D8711286-8B2E-3249-A1F3-91F80D4B4557}"/>
+    <hyperlink ref="C7" r:id="rId4" display="https://drive.google.com/file/d/1iLV37LTbsR2E3xRTUULzorfEXjLZCx8Z/view?usp=sharing" xr:uid="{FE855BA5-3DA1-FF49-8196-A056B41EF2E0}"/>
+    <hyperlink ref="C11" r:id="rId5" display="https://drive.google.com/file/d/1j303hhQX--CXNgHfuoBoVOjd3sYbZfKt/view?usp=sharing" xr:uid="{F0543E30-1E6D-1A46-9C70-CE1EB36A2065}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://drive.google.com/file/d/1j1hHs8X5DG0ZnzbMIUyJPrTQd-CIw05y/view?usp=sharing" xr:uid="{CDCC6917-8597-BB43-868A-9520A761EA94}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{9B910A99-21C6-2148-A4BE-DC1B85E41B2B}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{2ABDC497-009F-8545-A718-8B4976FD5811}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{2ECCBC57-40FC-5249-ABBE-15F427932C30}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{85D1A100-D09B-DA40-9F4B-126A7BF96AFD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1077,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F059FF4B-2FF4-7D41-8B23-E5EC4E884866}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF884B9D-064D-A746-92AA-5AD21E15D597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38CF575-4E54-1048-89FF-3A3E8254D385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Políticas institucionais" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>Publicação</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>Regulamento Acadêmico n° 04/2025</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2025 Modelo de PPT - Ciências da Reabilitação.pptx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/12B7VeeLgBpxl8-r9fyRWSOiJLbRhs6-H/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -402,6 +411,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -812,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248E9080-A683-DB41-BDAA-A32B194D1886}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1176,9 +1186,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1200,25 +1210,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>89</v>
+      <c r="A2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,10 +1236,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,32 +1247,32 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1270,65 +1280,65 @@
         <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,10 +1346,10 @@
         <v>93</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,27 +1357,39 @@
         <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{C72399E4-81DE-B74F-A0BE-5B89D71A7935}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38CF575-4E54-1048-89FF-3A3E8254D385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADB75B-6FB3-364F-A305-E1FA9C608BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>Publicação</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/12B7VeeLgBpxl8-r9fyRWSOiJLbRhs6-H/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>2024 Normas de Trabalhos de Conclusão de Curso PPGCR.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r-Re-Pqf7r2onDGoYAxrGvKACdF3Nxcg</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -411,7 +417,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1186,14 +1191,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="130.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
@@ -1210,10 +1215,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1225,21 +1230,21 @@
         <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1247,10 +1252,10 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1258,32 +1263,32 @@
         <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1291,65 +1296,65 @@
         <v>90</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1357,10 +1362,10 @@
         <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1368,28 +1373,40 @@
         <v>93</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
     <hyperlink ref="C2" r:id="rId14" xr:uid="{C72399E4-81DE-B74F-A0BE-5B89D71A7935}"/>
+    <hyperlink ref="C3" r:id="rId15" xr:uid="{6408D78A-EE59-AB47-A4DD-8AD3E0372CD5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADB75B-6FB3-364F-A305-E1FA9C608BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3B45F-2921-D44B-9678-5EEE353B51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>Publicação</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1r-Re-Pqf7r2onDGoYAxrGvKACdF3Nxcg</t>
+  </si>
+  <si>
+    <t>2025 Modelo Dissertação Tese PPGCR.docx</t>
+  </si>
+  <si>
+    <t>2025 Modelo Projeto PPGCR. Docx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1yrW5qisTkGez6PzbVqho8ZT_pprMfOKZ/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1wftdQbEvjSriqC5lV4VRiCoOiHLsb3yg/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,54 +1231,54 @@
         <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,109 +1286,109 @@
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1384,29 +1396,53 @@
         <v>93</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
-    <hyperlink ref="C12" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
-    <hyperlink ref="C5" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{C72399E4-81DE-B74F-A0BE-5B89D71A7935}"/>
-    <hyperlink ref="C3" r:id="rId15" xr:uid="{6408D78A-EE59-AB47-A4DD-8AD3E0372CD5}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{D58353E3-0D22-6E49-8E9B-557F45A15F67}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{CE655D34-B56E-714C-AF96-74253F5FE8D1}"/>
+    <hyperlink ref="C14" r:id="rId8" display="https://drive.google.com/file/d/1j-edLjBYuI92I2BuG5V82-TEpBiMs5ca/view?usp=sharing" xr:uid="{E1D31E93-A7B7-4142-BEDE-849E081BD752}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{47B5BA81-7870-3C45-8763-89B40FF21450}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{835ED028-155F-E043-8A9A-E9E5915272B2}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{6DC41942-7E92-AD49-BA73-5BC86822B876}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{2C2F6CA6-8A51-B94C-B3B4-AE2442556117}"/>
+    <hyperlink ref="C5" r:id="rId14" xr:uid="{6408D78A-EE59-AB47-A4DD-8AD3E0372CD5}"/>
+    <hyperlink ref="C4" r:id="rId15" xr:uid="{2434EE39-0F7E-1849-9B99-E46095ED2495}"/>
+    <hyperlink ref="C2" r:id="rId16" xr:uid="{E59CE51C-E792-2948-9842-C679D93A0C99}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{B7D5BAA9-9C78-8942-B1CE-E69C5FE9AF60}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Downloads.xlsx
+++ b/docs/PPG/Downloads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3B45F-2921-D44B-9678-5EEE353B51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845B85F-0B3E-6F43-B890-E72B0A9B31DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="5" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Políticas institucionais" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>Publicação</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1wftdQbEvjSriqC5lV4VRiCoOiHLsb3yg/edit?usp=sharing&amp;ouid=111502605498008190927&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QOZTwmkCJ7zt-t7R8sJhZ-LPd7F03OCU</t>
+  </si>
+  <si>
+    <t>Política para o Uso de Inteligência Artificial (IA) na UNISUAM</t>
   </si>
 </sst>
 </file>
@@ -744,16 +750,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="132.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -770,66 +774,78 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>2018</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{6B15A799-1845-0A40-9BE5-1468AD0A24B3}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://drive.google.com/file/d/1i_FdjhuIY7pgd77X8Q-YifH7ypKLLffF/view?usp=sharing" xr:uid="{2AB6F03A-3EA8-FC45-9BEE-984D3AC40063}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{93AF0380-1FD6-EC4F-A4F2-48BF6F10F7C7}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{6B15A799-1845-0A40-9BE5-1468AD0A24B3}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{0BF38C96-0E26-444C-959B-D4E260A0C699}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1205,7 +1221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823ED371-B145-1E45-89CF-11F13783305D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
